--- a/website_version/mentors/dan/data/Prompts_Utterances.xlsx
+++ b/website_version/mentors/dan/data/Prompts_Utterances.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:AA993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/website_version/mentors/dan/data/Prompts_Utterances.xlsx
+++ b/website_version/mentors/dan/data/Prompts_Utterances.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
   <si>
     <t xml:space="preserve">Situation</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">I could answer that, but it would be out of date soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_IDLE_</t>
   </si>
   <si>
     <t xml:space="preserve">How are you?</t>
@@ -411,9 +414,9 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2699,9 +2702,13 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C66" s="5"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3097,18 +3104,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
